--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/纺织、服装及皮革产品制造业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/纺织、服装及皮革产品制造业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.082185942633704</v>
+        <v>0.08207933672732801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.040302189886683</v>
+        <v>0.040147220662194</v>
       </c>
       <c r="D2" t="n">
-        <v>0.285906556225728</v>
+        <v>0.313026257622975</v>
       </c>
       <c r="E2" t="n">
-        <v>0.390310425834309</v>
+        <v>0.37344170703064</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002382909468584</v>
+        <v>0.002890863384033</v>
       </c>
       <c r="G2" t="n">
-        <v>0.049930538470734</v>
+        <v>0.060120775102107</v>
       </c>
       <c r="H2" t="n">
-        <v>0.077106287687167</v>
+        <v>0.081064561492303</v>
       </c>
       <c r="I2" t="n">
-        <v>0.163680431495002</v>
+        <v>0.156443042706281</v>
       </c>
       <c r="J2" t="n">
-        <v>0.072149052582756</v>
+        <v>0.065983500611431</v>
       </c>
       <c r="K2" t="n">
-        <v>0.120921476285804</v>
+        <v>0.11100979812695</v>
       </c>
       <c r="L2" t="n">
-        <v>0.790533413433565</v>
+        <v>0.79531882645035</v>
       </c>
       <c r="M2" t="n">
-        <v>0.095030691993866</v>
+        <v>0.106987526671238</v>
       </c>
       <c r="N2" t="n">
-        <v>0.112950616986419</v>
+        <v>0.123335610000264</v>
       </c>
       <c r="O2" t="n">
-        <v>0.094537323429544</v>
+        <v>0.08803505089662</v>
       </c>
       <c r="P2" t="n">
-        <v>0.053314257664903</v>
+        <v>0.06078150414757</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.016643324468682</v>
+        <v>0.019021724009364</v>
       </c>
       <c r="R2" t="n">
-        <v>0.111133018825179</v>
+        <v>0.123276272033776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08207933672732801</v>
+        <v>0.050821361079301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.040147220662194</v>
+        <v>0.034356928973584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.313026257622975</v>
+        <v>0.311343313359749</v>
       </c>
       <c r="E3" t="n">
-        <v>0.37344170703064</v>
+        <v>0.363340869827697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002890863384033</v>
+        <v>0.00636634949134</v>
       </c>
       <c r="G3" t="n">
-        <v>0.060120775102107</v>
+        <v>0.060289229866646</v>
       </c>
       <c r="H3" t="n">
-        <v>0.081064561492303</v>
+        <v>0.15147196594087</v>
       </c>
       <c r="I3" t="n">
-        <v>0.156443042706281</v>
+        <v>0.094243239345669</v>
       </c>
       <c r="J3" t="n">
-        <v>0.065983500611431</v>
+        <v>0.058602239747895</v>
       </c>
       <c r="K3" t="n">
-        <v>0.11100979812695</v>
+        <v>0.09118936266395899</v>
       </c>
       <c r="L3" t="n">
-        <v>0.79531882645035</v>
+        <v>0.823867847264929</v>
       </c>
       <c r="M3" t="n">
-        <v>0.106987526671238</v>
+        <v>0.09602324779881601</v>
       </c>
       <c r="N3" t="n">
-        <v>0.123335610000264</v>
+        <v>0.096438206339058</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08803505089662</v>
+        <v>0.059580473580604</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06078150414757</v>
+        <v>0.06720524185342901</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.019021724009364</v>
+        <v>0.011463124969376</v>
       </c>
       <c r="R3" t="n">
-        <v>0.123276272033776</v>
+        <v>0.121871956647956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.050821361079301</v>
+        <v>0.049513114261544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.034356928973584</v>
+        <v>0.036712494510643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.311343313359749</v>
+        <v>0.352635824810946</v>
       </c>
       <c r="E4" t="n">
-        <v>0.363340869827697</v>
+        <v>0.318541777949701</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00636634949134</v>
+        <v>0.005969205647972</v>
       </c>
       <c r="G4" t="n">
-        <v>0.060289229866646</v>
+        <v>0.077790741268605</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15147196594087</v>
+        <v>0.159137987454527</v>
       </c>
       <c r="I4" t="n">
-        <v>0.094243239345669</v>
+        <v>0.100073790789329</v>
       </c>
       <c r="J4" t="n">
-        <v>0.058602239747895</v>
+        <v>0.04182682642816</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09118936266395899</v>
+        <v>0.076935579588405</v>
       </c>
       <c r="L4" t="n">
-        <v>0.823867847264929</v>
+        <v>0.783644003920658</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09602324779881601</v>
+        <v>0.093191451085837</v>
       </c>
       <c r="N4" t="n">
-        <v>0.096438206339058</v>
+        <v>0.055400723734097</v>
       </c>
       <c r="O4" t="n">
-        <v>0.059580473580604</v>
+        <v>0.05022381383101</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06720524185342901</v>
+        <v>0.069506923791953</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.011463124969376</v>
+        <v>0.010927812448558</v>
       </c>
       <c r="R4" t="n">
-        <v>0.121871956647956</v>
+        <v>0.146889969620513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.049513114261544</v>
+        <v>0.009084721645137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.036712494510643</v>
+        <v>0.116280913236664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.352635824810946</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.318541777949701</v>
-      </c>
+        <v>0.262340797086457</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.005969205647972</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.077790741268605</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.159137987454527</v>
-      </c>
+        <v>0.002536302650047</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.100073790789329</v>
+        <v>0.101636076770366</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04182682642816</v>
+        <v>0.375372416380002</v>
       </c>
       <c r="K5" t="n">
-        <v>0.076935579588405</v>
+        <v>0.076077889721011</v>
       </c>
       <c r="L5" t="n">
-        <v>0.783644003920658</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.093191451085837</v>
-      </c>
+        <v>0.783422566183591</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.055400723734097</v>
+        <v>0.090298521443384</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05022381383101</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.069506923791953</v>
-      </c>
+        <v>0.049163528587901</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.010927812448558</v>
+        <v>0.009277589053483999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.146889969620513</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.009084721645137</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.116280913236664</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.262340797086457</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.002536302650047</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.101636076770366</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.375372416380002</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.076077889721011</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.783422566183591</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.090298521443384</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.049163528587901</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.009277589053483999</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.092499133743195</v>
       </c>
     </row>
